--- a/pred_ohlcv/54_21/2019-10-19 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 HDAC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-423672.7391388199</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-427454.7391388199</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-427454.7391388199</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-419995.1739388199</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-539694.1767388199</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-550413.4552388199</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-550413.4552388199</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-550341.4552388199</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-542745.9586312199</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-657736.6352312199</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-660536.6352312199</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-643763.2385620199</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-498998.8034388198</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-506355.7516388198</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-526355.7516388198</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-531032.0250388198</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-512481.2064388198</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-512535.2064388198</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-408240.1726819098</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-408240.1726819098</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-412836.9140819098</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-412782.7292993098</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-417549.2859167098</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-417567.2859167098</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-390343.2761736198</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-390333.2761736198</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-390387.2761736198</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-390387.2761736198</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 HDAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-423692.7391388199</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-423692.7391388199</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-423672.7391388199</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-427454.7391388199</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-427454.7391388199</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-419995.1739388199</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-539694.1767388199</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-550413.4552388199</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-550413.4552388199</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-550341.4552388199</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-542745.9586312199</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-657736.6352312199</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-660536.6352312199</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-643763.2385620199</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-498998.8034388198</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-506355.7516388198</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-526355.7516388198</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-531032.0250388198</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-525443.8684388198</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-525367.8684388198</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-525367.8684388198</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-512481.2064388198</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-512535.2064388198</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-412854.9140819098</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-390343.2761736198</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-390333.2761736198</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-390387.2761736198</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-390387.2761736198</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
